--- a/natmiOut/OldD0/LR-pairs_lrc2p/Tnfsf13-Sdc2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Tnfsf13-Sdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Sdc2</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.222284834018478</v>
+        <v>0.291812</v>
       </c>
       <c r="H2">
-        <v>0.222284834018478</v>
+        <v>0.875436</v>
       </c>
       <c r="I2">
-        <v>0.1281173665006135</v>
+        <v>0.1179458223311005</v>
       </c>
       <c r="J2">
-        <v>0.1281173665006135</v>
+        <v>0.1179458223311005</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.258611672977641</v>
+        <v>0.7065936666666666</v>
       </c>
       <c r="N2">
-        <v>0.258611672977641</v>
+        <v>2.119781</v>
       </c>
       <c r="O2">
-        <v>0.001911354185969573</v>
+        <v>0.005187843618793344</v>
       </c>
       <c r="P2">
-        <v>0.001911354185969573</v>
+        <v>0.005187843618793344</v>
       </c>
       <c r="Q2">
-        <v>0.05748545280307584</v>
+        <v>0.2061925110573333</v>
       </c>
       <c r="R2">
-        <v>0.05748545280307584</v>
+        <v>1.855732599516</v>
       </c>
       <c r="S2">
-        <v>0.0002448776647563456</v>
+        <v>0.0006118844817437333</v>
       </c>
       <c r="T2">
-        <v>0.0002448776647563456</v>
+        <v>0.0006118844817437332</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.222284834018478</v>
+        <v>0.291812</v>
       </c>
       <c r="H3">
-        <v>0.222284834018478</v>
+        <v>0.875436</v>
       </c>
       <c r="I3">
-        <v>0.1281173665006135</v>
+        <v>0.1179458223311005</v>
       </c>
       <c r="J3">
-        <v>0.1281173665006135</v>
+        <v>0.1179458223311005</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>111.866666870709</v>
+        <v>111.9320066666667</v>
       </c>
       <c r="N3">
-        <v>111.866666870709</v>
+        <v>335.79602</v>
       </c>
       <c r="O3">
-        <v>0.8267872038872721</v>
+        <v>0.8218100075305903</v>
       </c>
       <c r="P3">
-        <v>0.8267872038872721</v>
+        <v>0.8218100075305903</v>
       </c>
       <c r="Q3">
-        <v>24.86626347755592</v>
+        <v>32.66310272941333</v>
       </c>
       <c r="R3">
-        <v>24.86626347755592</v>
+        <v>293.96792456472</v>
       </c>
       <c r="S3">
-        <v>0.1059257992184431</v>
+        <v>0.09692905713812337</v>
       </c>
       <c r="T3">
-        <v>0.1059257992184431</v>
+        <v>0.09692905713812336</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.222284834018478</v>
+        <v>0.291812</v>
       </c>
       <c r="H4">
-        <v>0.222284834018478</v>
+        <v>0.875436</v>
       </c>
       <c r="I4">
-        <v>0.1281173665006135</v>
+        <v>0.1179458223311005</v>
       </c>
       <c r="J4">
-        <v>0.1281173665006135</v>
+        <v>0.1179458223311005</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.177573683283</v>
+        <v>23.563205</v>
       </c>
       <c r="N4">
-        <v>23.177573683283</v>
+        <v>70.689615</v>
       </c>
       <c r="O4">
-        <v>0.1713014419267583</v>
+        <v>0.1730021488506163</v>
       </c>
       <c r="P4">
-        <v>0.1713014419267583</v>
+        <v>0.1730021488506163</v>
       </c>
       <c r="Q4">
-        <v>5.152023119139606</v>
+        <v>6.87602597746</v>
       </c>
       <c r="R4">
-        <v>5.152023119139606</v>
+        <v>61.88423379714001</v>
       </c>
       <c r="S4">
-        <v>0.02194668961741406</v>
+        <v>0.02040488071123339</v>
       </c>
       <c r="T4">
-        <v>0.02194668961741406</v>
+        <v>0.02040488071123339</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.51272455690132</v>
+        <v>0.514066</v>
       </c>
       <c r="H5">
-        <v>1.51272455690132</v>
+        <v>1.542198</v>
       </c>
       <c r="I5">
-        <v>0.8718826334993864</v>
+        <v>0.2077773947009016</v>
       </c>
       <c r="J5">
-        <v>0.8718826334993864</v>
+        <v>0.2077773947009016</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.258611672977641</v>
+        <v>0.7065936666666666</v>
       </c>
       <c r="N5">
-        <v>0.258611672977641</v>
+        <v>2.119781</v>
       </c>
       <c r="O5">
-        <v>0.001911354185969573</v>
+        <v>0.005187843618793344</v>
       </c>
       <c r="P5">
-        <v>0.001911354185969573</v>
+        <v>0.005187843618793344</v>
       </c>
       <c r="Q5">
-        <v>0.391208228414611</v>
+        <v>0.3632357798486666</v>
       </c>
       <c r="R5">
-        <v>0.391208228414611</v>
+        <v>3.269122018637999</v>
       </c>
       <c r="S5">
-        <v>0.001666476521213227</v>
+        <v>0.001077916631228578</v>
       </c>
       <c r="T5">
-        <v>0.001666476521213227</v>
+        <v>0.001077916631228578</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.51272455690132</v>
+        <v>0.514066</v>
       </c>
       <c r="H6">
-        <v>1.51272455690132</v>
+        <v>1.542198</v>
       </c>
       <c r="I6">
-        <v>0.8718826334993864</v>
+        <v>0.2077773947009016</v>
       </c>
       <c r="J6">
-        <v>0.8718826334993864</v>
+        <v>0.2077773947009016</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>111.866666870709</v>
+        <v>111.9320066666667</v>
       </c>
       <c r="N6">
-        <v>111.866666870709</v>
+        <v>335.79602</v>
       </c>
       <c r="O6">
-        <v>0.8267872038872721</v>
+        <v>0.8218100075305903</v>
       </c>
       <c r="P6">
-        <v>0.8267872038872721</v>
+        <v>0.8218100075305903</v>
       </c>
       <c r="Q6">
-        <v>169.2234540740208</v>
+        <v>57.54043893910667</v>
       </c>
       <c r="R6">
-        <v>169.2234540740208</v>
+        <v>517.86395045196</v>
       </c>
       <c r="S6">
-        <v>0.720861404668829</v>
+        <v>0.1707535423038344</v>
       </c>
       <c r="T6">
-        <v>0.720861404668829</v>
+        <v>0.1707535423038344</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.514066</v>
+      </c>
+      <c r="H7">
+        <v>1.542198</v>
+      </c>
+      <c r="I7">
+        <v>0.2077773947009016</v>
+      </c>
+      <c r="J7">
+        <v>0.2077773947009016</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>23.563205</v>
+      </c>
+      <c r="N7">
+        <v>70.689615</v>
+      </c>
+      <c r="O7">
+        <v>0.1730021488506163</v>
+      </c>
+      <c r="P7">
+        <v>0.1730021488506163</v>
+      </c>
+      <c r="Q7">
+        <v>12.11304254153</v>
+      </c>
+      <c r="R7">
+        <v>109.01738287377</v>
+      </c>
+      <c r="S7">
+        <v>0.03594593576583863</v>
+      </c>
+      <c r="T7">
+        <v>0.03594593576583864</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.668241</v>
+      </c>
+      <c r="H8">
+        <v>5.004723</v>
+      </c>
+      <c r="I8">
+        <v>0.674276782967998</v>
+      </c>
+      <c r="J8">
+        <v>0.674276782967998</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.7065936666666666</v>
+      </c>
+      <c r="N8">
+        <v>2.119781</v>
+      </c>
+      <c r="O8">
+        <v>0.005187843618793344</v>
+      </c>
+      <c r="P8">
+        <v>0.005187843618793344</v>
+      </c>
+      <c r="Q8">
+        <v>1.178768525073667</v>
+      </c>
+      <c r="R8">
+        <v>10.608916725663</v>
+      </c>
+      <c r="S8">
+        <v>0.003498042505821033</v>
+      </c>
+      <c r="T8">
+        <v>0.003498042505821033</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.51272455690132</v>
-      </c>
-      <c r="H7">
-        <v>1.51272455690132</v>
-      </c>
-      <c r="I7">
-        <v>0.8718826334993864</v>
-      </c>
-      <c r="J7">
-        <v>0.8718826334993864</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>23.177573683283</v>
-      </c>
-      <c r="N7">
-        <v>23.177573683283</v>
-      </c>
-      <c r="O7">
-        <v>0.1713014419267583</v>
-      </c>
-      <c r="P7">
-        <v>0.1713014419267583</v>
-      </c>
-      <c r="Q7">
-        <v>35.06128488009197</v>
-      </c>
-      <c r="R7">
-        <v>35.06128488009197</v>
-      </c>
-      <c r="S7">
-        <v>0.1493547523093443</v>
-      </c>
-      <c r="T7">
-        <v>0.1493547523093443</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.668241</v>
+      </c>
+      <c r="H9">
+        <v>5.004723</v>
+      </c>
+      <c r="I9">
+        <v>0.674276782967998</v>
+      </c>
+      <c r="J9">
+        <v>0.674276782967998</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>111.9320066666667</v>
+      </c>
+      <c r="N9">
+        <v>335.79602</v>
+      </c>
+      <c r="O9">
+        <v>0.8218100075305903</v>
+      </c>
+      <c r="P9">
+        <v>0.8218100075305903</v>
+      </c>
+      <c r="Q9">
+        <v>186.7295627336067</v>
+      </c>
+      <c r="R9">
+        <v>1680.56606460246</v>
+      </c>
+      <c r="S9">
+        <v>0.5541274080886326</v>
+      </c>
+      <c r="T9">
+        <v>0.5541274080886326</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.668241</v>
+      </c>
+      <c r="H10">
+        <v>5.004723</v>
+      </c>
+      <c r="I10">
+        <v>0.674276782967998</v>
+      </c>
+      <c r="J10">
+        <v>0.674276782967998</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>23.563205</v>
+      </c>
+      <c r="N10">
+        <v>70.689615</v>
+      </c>
+      <c r="O10">
+        <v>0.1730021488506163</v>
+      </c>
+      <c r="P10">
+        <v>0.1730021488506163</v>
+      </c>
+      <c r="Q10">
+        <v>39.309104672405</v>
+      </c>
+      <c r="R10">
+        <v>353.781942051645</v>
+      </c>
+      <c r="S10">
+        <v>0.1166513323735443</v>
+      </c>
+      <c r="T10">
+        <v>0.1166513323735443</v>
       </c>
     </row>
   </sheetData>
